--- a/target/classes/file/import/themthethanhvien.xlsx
+++ b/target/classes/file/import/themthethanhvien.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Lap_Trinh_Java\DoAn\sieuthimini\src\main\resources\file\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BA022-2575-40D3-B0F6-2F3F23136406}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9575C0-ED6F-4879-A047-B72080786F0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD8759C6-E0F7-461D-91E4-A042F56043D6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Tên thành viên</t>
   </si>
@@ -45,25 +45,25 @@
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>15/05/1990</t>
-  </si>
-  <si>
     <t>123 Đường Láng</t>
   </si>
   <si>
     <t>Trần Thị B</t>
   </si>
   <si>
-    <t>22/08/1985</t>
-  </si>
-  <si>
     <t>456 Lê Lợi</t>
   </si>
   <si>
-    <t>nv1.jpg</t>
-  </si>
-  <si>
-    <t>nv2.jpeg</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>23/02/2035</t>
   </si>
 </sst>
 </file>
@@ -435,12 +435,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -465,33 +465,33 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>123546842</v>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3">
+        <v>1234567891</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>987654321</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/file/import/themthethanhvien.xlsx
+++ b/target/classes/file/import/themthethanhvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Lap_Trinh_Java\DoAn\sieuthimini\src\main\resources\file\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9575C0-ED6F-4879-A047-B72080786F0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43EF99-5051-4934-BB54-366F04E1B4CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD8759C6-E0F7-461D-91E4-A042F56043D6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Tên thành viên</t>
   </si>
@@ -42,28 +42,76 @@
     <t>Ảnh đại diện</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>123 Đường Láng</t>
-  </si>
-  <si>
-    <t>Trần Thị B</t>
-  </si>
-  <si>
-    <t>456 Lê Lợi</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>23/02/2035</t>
+    <t>457 Lê Lợi</t>
+  </si>
+  <si>
+    <t>23/02/2005</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Giàu</t>
+  </si>
+  <si>
+    <t>23/02/2006</t>
+  </si>
+  <si>
+    <t>458 Lê Lợi</t>
+  </si>
+  <si>
+    <t>Đỗ Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh Khai Quận 8 TP.HCM</t>
+  </si>
+  <si>
+    <t>0977723621</t>
+  </si>
+  <si>
+    <t>nv3.jpg</t>
+  </si>
+  <si>
+    <t>0977723622</t>
+  </si>
+  <si>
+    <t>0977723623</t>
+  </si>
+  <si>
+    <t>Huỳnh Như Quỳnh</t>
+  </si>
+  <si>
+    <t>452 Lê Lợi</t>
+  </si>
+  <si>
+    <t>23/02/2002</t>
+  </si>
+  <si>
+    <t>453 Lê Lợi</t>
+  </si>
+  <si>
+    <t>455 Lê Lợi</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>nv2.jpeg</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>23/02/2066</t>
+  </si>
+  <si>
+    <t>23/02/2014</t>
+  </si>
+  <si>
+    <t>123.s</t>
+  </si>
+  <si>
+    <t>sdh?.dhg,</t>
   </si>
 </sst>
 </file>
@@ -107,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,6 +164,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058710C4-4E1C-42C7-B0E8-2DB8F44E6A36}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +495,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,38 +512,192 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1234567891</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
